--- a/extractosBancarios/03012023/CARMIÑA/0090-01012023-03012023.xlsx
+++ b/extractosBancarios/03012023/CARMIÑA/0090-01012023-03012023.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TESORERIA\EXTRACTOS\EXTRACTOS 03-01-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11E869A0-3438-4778-B5BD-0F47AF33A9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{464C95E8-9D63-40AB-B617-BC62C1953106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="1950" yWindow="600" windowWidth="10515" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MovimientosPorFecha - 04_01_202" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Fecha</t>
   </si>
@@ -55,56 +68,23 @@
     <t>Codigo</t>
   </si>
   <si>
-    <t xml:space="preserve">Crédito de otro banco ACH     </t>
-  </si>
-  <si>
-    <t>de:TINTILAY TOLABA MYRIAM (Banco Union)Imp. Original:Bs 15,829.20</t>
-  </si>
-  <si>
-    <t>LP - Principal(calle Loayza)</t>
-  </si>
-  <si>
-    <t>On Line</t>
-  </si>
-  <si>
-    <t>de:SIEMPRE VERDE DE IMAR FREDY JIMENEZ CARRAZANA (Banco Union)Imp. Original:Bs 2,195.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abono por pago proveedores    </t>
-  </si>
-  <si>
-    <t>Nota: de ATC</t>
-  </si>
-  <si>
-    <t>e-BISA</t>
-  </si>
-  <si>
-    <t>de:HEBERT IVAN BENITO LOPEZ (Banco Crédito)Imp. Original:Bs 5,312.64</t>
-  </si>
-  <si>
     <t xml:space="preserve">Depósito Efectivo             </t>
   </si>
   <si>
-    <t>Nombre:NELVI JUANITA ROMERO CASTILLO Doc.ID:CTJ-7225541 Num.Ctl:1505297994 Telf.:68702509 Empresa:AV</t>
-  </si>
-  <si>
-    <t>TA - Principal</t>
+    <t>Nombre:OSCAR LOAYZA SALVATIERRA Doc.ID:CBE-5596222 Num.Ctl:1924228700 Telf.:76305131 Empresa:URB.  L</t>
+  </si>
+  <si>
+    <t>TR - Principal</t>
   </si>
   <si>
     <t>Ventanilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depósito Cheque Bisa          </t>
-  </si>
-  <si>
-    <t>Nombre:NELVI JUANITA ROMERO CASTILLO Doc.ID:CTJ-7225541 Num.Ctl:1505297995 Telf.:68702509 Empresa:AV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,7 +625,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -940,14 +920,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -982,12 +967,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>44929</v>
       </c>
       <c r="B2" s="2">
-        <v>0.45208333333333334</v>
+        <v>0.49513888888888885</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -996,10 +981,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="3">
-        <v>15829.2</v>
+        <v>2923.5</v>
       </c>
       <c r="F2" s="3">
-        <v>93849.63</v>
+        <v>20023689.969999999</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -1011,185 +996,10 @@
         <v>14</v>
       </c>
       <c r="J2">
-        <v>45123210717</v>
+        <v>19240228700</v>
       </c>
       <c r="K2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>44929</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.49027777777777781</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2195.1999999999998</v>
-      </c>
-      <c r="F3" s="3">
-        <v>96044.83</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3">
-        <v>45113228796</v>
-      </c>
-      <c r="K3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>44929</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.5131944444444444</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>697.56</v>
-      </c>
-      <c r="F4" s="3">
-        <v>96742.39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4">
-        <v>51217405229</v>
-      </c>
-      <c r="K4">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>44929</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.51527777777777783</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5312.64</v>
-      </c>
-      <c r="F5" s="3">
-        <v>102055.03</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5">
-        <v>45173141987</v>
-      </c>
-      <c r="K5">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44929</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.59513888888888888</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3">
-        <v>152736.70000000001</v>
-      </c>
-      <c r="F6" s="3">
-        <v>254791.73</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6">
-        <v>15050297994</v>
-      </c>
-      <c r="K6">
         <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>44929</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.59652777777777777</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5332.7</v>
-      </c>
-      <c r="F7" s="3">
-        <v>260124.43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7">
-        <v>15050297995</v>
-      </c>
-      <c r="K7">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
